--- a/automatic_testing/submission_export.xlsx
+++ b/automatic_testing/submission_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kian199887/Downloads/github_francistan88/DSA/automatic_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0197D5E9-63F6-5A40-9B37-D3B3B4FBFBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E99C44-7225-C144-8348-3B99188FB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -205,6 +205,18 @@
     <t>H228000875VA2</t>
   </si>
   <si>
+    <t>H228000880VA2</t>
+  </si>
+  <si>
+    <t>930930090909</t>
+  </si>
+  <si>
+    <t>950607123456</t>
+  </si>
+  <si>
+    <t>201803299728</t>
+  </si>
+  <si>
     <t>H228000876VA2</t>
   </si>
   <si>
@@ -247,16 +259,70 @@
     <t>800225666666</t>
   </si>
   <si>
-    <t>H228000880VA2</t>
-  </si>
-  <si>
-    <t>930930090909</t>
-  </si>
-  <si>
-    <t>950607123456</t>
-  </si>
-  <si>
-    <t>201803299728</t>
+    <t>H228000881VA2</t>
+  </si>
+  <si>
+    <t>880520435314</t>
+  </si>
+  <si>
+    <t>01116280047</t>
+  </si>
+  <si>
+    <t>H228000893VA2</t>
+  </si>
+  <si>
+    <t>H228000883VA2</t>
+  </si>
+  <si>
+    <t>H228000884VA2</t>
+  </si>
+  <si>
+    <t>H228000885VA2</t>
+  </si>
+  <si>
+    <t>H228000886VA2</t>
+  </si>
+  <si>
+    <t>H228000882VA2</t>
+  </si>
+  <si>
+    <t>H228000889VA2</t>
+  </si>
+  <si>
+    <t>H228000890VA2</t>
+  </si>
+  <si>
+    <t>H228000891VA2</t>
+  </si>
+  <si>
+    <t>H228000894VA2</t>
+  </si>
+  <si>
+    <t>H228000895VA2</t>
+  </si>
+  <si>
+    <t>H228000896VA2</t>
+  </si>
+  <si>
+    <t>H228000897VA2</t>
+  </si>
+  <si>
+    <t>H228000906VA2</t>
+  </si>
+  <si>
+    <t>H228000908VA2</t>
+  </si>
+  <si>
+    <t>H228000909VA2</t>
+  </si>
+  <si>
+    <t>H228000910VA2</t>
+  </si>
+  <si>
+    <t>H228000911VA2</t>
+  </si>
+  <si>
+    <t>H228000914VA2</t>
   </si>
 </sst>
 </file>
@@ -267,7 +333,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,13 +354,27 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -316,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -330,7 +410,6 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -340,6 +419,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -360,7 +442,11 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -666,34 +752,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="11"/>
+    <col min="2" max="2" width="32" style="9"/>
+    <col min="3" max="3" width="32" style="12"/>
+    <col min="4" max="4" width="32" style="5"/>
+    <col min="5" max="5" width="32" style="6"/>
+    <col min="6" max="6" width="32" style="7"/>
+    <col min="7" max="7" width="32" style="5"/>
+    <col min="8" max="8" width="32" style="7"/>
+    <col min="9" max="9" width="32" style="5"/>
+    <col min="10" max="10" width="32" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="28" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -718,12 +804,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:10" ht="28" customHeight="1">
+      <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>880520435314</v>
       </c>
       <c r="D2" s="3">
@@ -746,9 +832,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="C3" s="14"/>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -759,9 +845,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="C4" s="14">
+    <row r="4" spans="1:10" ht="28" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="C4" s="16">
         <v>930930090909</v>
       </c>
       <c r="D4" s="3">
@@ -784,9 +870,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="C5" s="14">
+    <row r="5" spans="1:10" ht="28" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="C5" s="16">
         <v>970118123456</v>
       </c>
       <c r="D5" s="3">
@@ -809,9 +895,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="C6" s="14"/>
+    <row r="6" spans="1:10" ht="28" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -822,9 +908,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="C7" s="14">
+    <row r="7" spans="1:10" ht="28" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="C7" s="16">
         <v>980513123456</v>
       </c>
       <c r="D7" s="3">
@@ -847,9 +933,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="C8" s="14">
+    <row r="8" spans="1:10" ht="28" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="C8" s="16">
         <v>891007777777</v>
       </c>
       <c r="D8" s="3">
@@ -872,9 +958,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="C9" s="14">
+    <row r="9" spans="1:10" ht="28" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="C9" s="16">
         <v>891007666666</v>
       </c>
       <c r="D9" s="3">
@@ -897,9 +983,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="C10" s="14"/>
+    <row r="10" spans="1:10" ht="28" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -908,14 +994,14 @@
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="21.75" customHeight="1">
+    <row r="11" spans="1:10" ht="28" customHeight="1">
       <c r="A11" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>880520435314</v>
       </c>
       <c r="D11" s="3">
@@ -940,14 +1026,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1">
+    <row r="12" spans="1:10" ht="28" customHeight="1">
       <c r="A12" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>880520435314</v>
       </c>
       <c r="D12" s="3">
@@ -972,14 +1058,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1">
+    <row r="13" spans="1:10" ht="28" customHeight="1">
       <c r="A13" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>980513123456</v>
       </c>
       <c r="D13" s="3">
@@ -1004,14 +1090,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21.75" customHeight="1">
+    <row r="14" spans="1:10" ht="28" customHeight="1">
       <c r="A14" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>891007777777</v>
       </c>
       <c r="D14" s="3">
@@ -1036,14 +1122,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21.75" customHeight="1">
+    <row r="15" spans="1:10" ht="28" customHeight="1">
       <c r="A15" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="16">
         <v>891007666666</v>
       </c>
       <c r="D15" s="3">
@@ -1068,14 +1154,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21.75" customHeight="1">
+    <row r="16" spans="1:10" ht="28" customHeight="1">
       <c r="A16" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="16">
         <v>970118123456</v>
       </c>
       <c r="D16" s="3">
@@ -1100,14 +1186,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="21.75" customHeight="1">
+    <row r="17" spans="1:10" ht="28" customHeight="1">
       <c r="A17" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="16">
         <v>970118123456</v>
       </c>
       <c r="D17" s="3">
@@ -1132,9 +1218,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="C18" s="14"/>
+    <row r="18" spans="1:10" ht="28" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
@@ -1143,14 +1229,14 @@
       <c r="I18" s="3"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="21.75" customHeight="1">
+    <row r="19" spans="1:10" ht="28" customHeight="1">
       <c r="A19" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="16">
         <v>880520435314</v>
       </c>
       <c r="D19" s="3">
@@ -1175,14 +1261,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="21.75" customHeight="1">
+    <row r="20" spans="1:10" ht="28" customHeight="1">
       <c r="A20" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="16">
         <v>880520435314</v>
       </c>
       <c r="D20" s="3">
@@ -1207,14 +1293,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21.75" customHeight="1">
+    <row r="21" spans="1:10" ht="28" customHeight="1">
       <c r="A21" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="16">
         <v>930930090909</v>
       </c>
       <c r="D21" s="3">
@@ -1239,14 +1325,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="21.75" customHeight="1">
+    <row r="22" spans="1:10" ht="28" customHeight="1">
       <c r="A22" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="16">
         <v>970118123456</v>
       </c>
       <c r="D22" s="3">
@@ -1271,14 +1357,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21.75" customHeight="1">
+    <row r="23" spans="1:10" ht="28" customHeight="1">
       <c r="A23" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="16">
         <v>980513123456</v>
       </c>
       <c r="D23" s="3">
@@ -1303,14 +1389,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="21.75" customHeight="1">
+    <row r="24" spans="1:10" ht="28" customHeight="1">
       <c r="A24" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="16">
         <v>980513123456</v>
       </c>
       <c r="D24" s="3">
@@ -1335,14 +1421,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
+    <row r="25" spans="1:10" ht="28" customHeight="1">
       <c r="A25" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="16">
         <v>891007777777</v>
       </c>
       <c r="D25" s="3">
@@ -1367,14 +1453,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="21.75" customHeight="1">
+    <row r="26" spans="1:10" ht="28" customHeight="1">
       <c r="A26" s="4">
         <v>25569.333854166671</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="16">
         <v>891007666666</v>
       </c>
       <c r="D26" s="3">
@@ -1399,10 +1485,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="21.75" customHeight="1">
+    <row r="27" spans="1:10" ht="28" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
@@ -1411,14 +1497,14 @@
       <c r="I27" s="3"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A28" s="11">
+    <row r="28" spans="1:10" ht="28" customHeight="1">
+      <c r="A28" s="13">
         <v>44771</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="16">
         <v>980513123456</v>
       </c>
       <c r="D28" s="3">
@@ -1443,14 +1529,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A29" s="11">
+    <row r="29" spans="1:10" ht="28" customHeight="1">
+      <c r="A29" s="13">
         <v>44771</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="16">
         <v>891007777777</v>
       </c>
       <c r="D29" s="3">
@@ -1475,14 +1561,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A30" s="11">
+    <row r="30" spans="1:10" ht="28" customHeight="1">
+      <c r="A30" s="13">
         <v>44771</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="16">
         <v>891007666666</v>
       </c>
       <c r="D30" s="3">
@@ -1507,9 +1593,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="C31" s="14"/>
+    <row r="31" spans="1:10" ht="28" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
@@ -1518,14 +1604,14 @@
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A32" s="11">
+    <row r="32" spans="1:10" ht="28" customHeight="1">
+      <c r="A32" s="13">
         <v>44775</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="16">
         <v>880520435314</v>
       </c>
       <c r="D32" s="3">
@@ -1550,14 +1636,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A33" s="11">
+    <row r="33" spans="1:10" ht="28" customHeight="1">
+      <c r="A33" s="13">
         <v>44775</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="16">
         <v>930930090909</v>
       </c>
       <c r="D33" s="3">
@@ -1582,14 +1668,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A34" s="11">
+    <row r="34" spans="1:10" ht="28" customHeight="1">
+      <c r="A34" s="13">
         <v>44775</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="16">
         <v>970118123456</v>
       </c>
       <c r="D34" s="3">
@@ -1614,14 +1700,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A35" s="11">
+    <row r="35" spans="1:10" ht="28" customHeight="1">
+      <c r="A35" s="13">
         <v>44775</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="16">
         <v>980513123456</v>
       </c>
       <c r="D35" s="3">
@@ -1646,14 +1732,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A36" s="11">
+    <row r="36" spans="1:10" ht="28" customHeight="1">
+      <c r="A36" s="13">
         <v>44775</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="16">
         <v>891007777777</v>
       </c>
       <c r="D36" s="3">
@@ -1678,14 +1764,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A37" s="11">
+    <row r="37" spans="1:10" ht="28" customHeight="1">
+      <c r="A37" s="13">
         <v>44775</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="16">
         <v>891007666666</v>
       </c>
       <c r="D37" s="3">
@@ -1710,15 +1796,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1"/>
-    <row r="39" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A39" s="11">
+    <row r="39" spans="1:10" ht="28" customHeight="1">
+      <c r="A39" s="13">
         <v>44776</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="16">
         <v>880520435314</v>
       </c>
       <c r="D39" s="3">
@@ -1737,20 +1822,20 @@
         <v>13</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="11">
+    <row r="40" spans="1:10" ht="28" customHeight="1">
+      <c r="A40" s="13">
         <v>44776</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="16">
         <v>930930090909</v>
       </c>
       <c r="D40" s="3">
@@ -1769,27 +1854,27 @@
         <v>17</v>
       </c>
       <c r="I40" s="3">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="28" customHeight="1">
       <c r="A41" s="17">
         <v>44776</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -1801,56 +1886,56 @@
         <v>17</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="15">
+    <row r="42" spans="1:10" ht="28" customHeight="1">
+      <c r="A42" s="17">
         <v>44776</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="15">
+    <row r="43" spans="1:10" ht="28" customHeight="1">
+      <c r="A43" s="17">
         <v>44776</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
@@ -1865,24 +1950,24 @@
         <v>25</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="15">
+    <row r="44" spans="1:10" ht="28" customHeight="1">
+      <c r="A44" s="17">
         <v>44776</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
@@ -1897,24 +1982,24 @@
         <v>29</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="15">
+    <row r="45" spans="1:10" ht="28" customHeight="1">
+      <c r="A45" s="17">
         <v>44776</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
         <v>31</v>
@@ -1929,9 +2014,655 @@
         <v>17</v>
       </c>
       <c r="I45">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28" customHeight="1">
+      <c r="A47" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>70</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28" customHeight="1">
+      <c r="A48" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>70</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28" customHeight="1">
+      <c r="A49" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>70</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28" customHeight="1">
+      <c r="A50" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50">
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28" customHeight="1">
+      <c r="A51" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28" customHeight="1">
+      <c r="A52" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>70</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28" customHeight="1">
+      <c r="A53" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53">
+        <v>70</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28" customHeight="1">
+      <c r="A55" s="19">
+        <v>44777</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="8">
         <v>1</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J55" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28" customHeight="1">
+      <c r="A56" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28" customHeight="1">
+      <c r="A57" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28" customHeight="1">
+      <c r="A58" s="17">
+        <v>44777</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="10" customFormat="1" ht="28" customHeight="1">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="60" spans="1:10" ht="28" customHeight="1">
+      <c r="A60" s="17">
+        <v>44778</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="28" customHeight="1">
+      <c r="A61" s="17">
+        <v>44778</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28" customHeight="1">
+      <c r="A62" s="21">
+        <v>44778</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="23" customFormat="1" ht="28" customHeight="1">
+      <c r="A63" s="22"/>
+    </row>
+    <row r="64" spans="1:10" ht="28" customHeight="1">
+      <c r="A64" s="21">
+        <v>44781</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
+      <c r="A65" s="21">
+        <v>44781</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
+      <c r="A66" s="21">
+        <v>44781</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="9">
+        <v>1</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
+      <c r="A67" s="21">
+        <v>44781</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
+      <c r="A68" s="21">
+        <v>44781</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="28" customHeight="1">
+      <c r="A69" s="21">
+        <v>44781</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1</v>
+      </c>
+      <c r="J69" s="9" t="s">
         <v>32</v>
       </c>
     </row>

--- a/automatic_testing/submission_export.xlsx
+++ b/automatic_testing/submission_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kian199887/Downloads/github_francistan88/DSA/automatic_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E99C44-7225-C144-8348-3B99188FB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AC583-BB32-324D-AE13-8EF779892C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -302,27 +302,6 @@
   </si>
   <si>
     <t>H228000896VA2</t>
-  </si>
-  <si>
-    <t>H228000897VA2</t>
-  </si>
-  <si>
-    <t>H228000906VA2</t>
-  </si>
-  <si>
-    <t>H228000908VA2</t>
-  </si>
-  <si>
-    <t>H228000909VA2</t>
-  </si>
-  <si>
-    <t>H228000910VA2</t>
-  </si>
-  <si>
-    <t>H228000911VA2</t>
-  </si>
-  <si>
-    <t>H228000914VA2</t>
   </si>
 </sst>
 </file>
@@ -396,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -445,8 +424,6 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -752,27 +729,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="28" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32" style="11"/>
-    <col min="2" max="2" width="32" style="9"/>
-    <col min="3" max="3" width="32" style="12"/>
-    <col min="4" max="4" width="32" style="5"/>
-    <col min="5" max="5" width="32" style="6"/>
-    <col min="6" max="6" width="32" style="7"/>
-    <col min="7" max="7" width="32" style="5"/>
-    <col min="8" max="8" width="32" style="7"/>
-    <col min="9" max="9" width="32" style="5"/>
-    <col min="10" max="10" width="32" style="7"/>
+    <col min="1" max="1" width="25.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28" customHeight="1">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -804,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28" customHeight="1">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -832,7 +809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" customHeight="1">
+    <row r="3" spans="1:10" ht="21.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
@@ -845,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28" customHeight="1">
+    <row r="4" spans="1:10" ht="21.75" customHeight="1">
       <c r="A4" s="15"/>
       <c r="C4" s="16">
         <v>930930090909</v>
@@ -870,7 +847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28" customHeight="1">
+    <row r="5" spans="1:10" ht="21.75" customHeight="1">
       <c r="A5" s="15"/>
       <c r="C5" s="16">
         <v>970118123456</v>
@@ -895,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28" customHeight="1">
+    <row r="6" spans="1:10" ht="21.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="3"/>
@@ -908,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28" customHeight="1">
+    <row r="7" spans="1:10" ht="21.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="C7" s="16">
         <v>980513123456</v>
@@ -933,7 +910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" customHeight="1">
+    <row r="8" spans="1:10" ht="21.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="C8" s="16">
         <v>891007777777</v>
@@ -958,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28" customHeight="1">
+    <row r="9" spans="1:10" ht="21.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="C9" s="16">
         <v>891007666666</v>
@@ -983,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28" customHeight="1">
+    <row r="10" spans="1:10" ht="21.75" customHeight="1">
       <c r="A10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="3"/>
@@ -994,7 +971,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="28" customHeight="1">
+    <row r="11" spans="1:10" ht="21.75" customHeight="1">
       <c r="A11" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1026,7 +1003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" customHeight="1">
+    <row r="12" spans="1:10" ht="21.75" customHeight="1">
       <c r="A12" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1058,7 +1035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28" customHeight="1">
+    <row r="13" spans="1:10" ht="21.75" customHeight="1">
       <c r="A13" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1090,7 +1067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28" customHeight="1">
+    <row r="14" spans="1:10" ht="21.75" customHeight="1">
       <c r="A14" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1122,7 +1099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28" customHeight="1">
+    <row r="15" spans="1:10" ht="21.75" customHeight="1">
       <c r="A15" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1154,7 +1131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28" customHeight="1">
+    <row r="16" spans="1:10" ht="21.75" customHeight="1">
       <c r="A16" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1186,7 +1163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28" customHeight="1">
+    <row r="17" spans="1:10" ht="21.75" customHeight="1">
       <c r="A17" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1218,7 +1195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28" customHeight="1">
+    <row r="18" spans="1:10" ht="21.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
@@ -1229,7 +1206,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="28" customHeight="1">
+    <row r="19" spans="1:10" ht="21.75" customHeight="1">
       <c r="A19" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1261,7 +1238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28" customHeight="1">
+    <row r="20" spans="1:10" ht="21.75" customHeight="1">
       <c r="A20" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1293,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28" customHeight="1">
+    <row r="21" spans="1:10" ht="21.75" customHeight="1">
       <c r="A21" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1325,7 +1302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28" customHeight="1">
+    <row r="22" spans="1:10" ht="21.75" customHeight="1">
       <c r="A22" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1357,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28" customHeight="1">
+    <row r="23" spans="1:10" ht="21.75" customHeight="1">
       <c r="A23" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1389,7 +1366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28" customHeight="1">
+    <row r="24" spans="1:10" ht="21.75" customHeight="1">
       <c r="A24" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1421,7 +1398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28" customHeight="1">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1">
       <c r="A25" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1453,7 +1430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28" customHeight="1">
+    <row r="26" spans="1:10" ht="21.75" customHeight="1">
       <c r="A26" s="4">
         <v>25569.333854166671</v>
       </c>
@@ -1485,7 +1462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28" customHeight="1">
+    <row r="27" spans="1:10" ht="21.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="16"/>
@@ -1497,7 +1474,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="28" customHeight="1">
+    <row r="28" spans="1:10" ht="21.75" customHeight="1">
       <c r="A28" s="13">
         <v>44771</v>
       </c>
@@ -1529,7 +1506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28" customHeight="1">
+    <row r="29" spans="1:10" ht="21.75" customHeight="1">
       <c r="A29" s="13">
         <v>44771</v>
       </c>
@@ -1561,7 +1538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28" customHeight="1">
+    <row r="30" spans="1:10" ht="21.75" customHeight="1">
       <c r="A30" s="13">
         <v>44771</v>
       </c>
@@ -1593,7 +1570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28" customHeight="1">
+    <row r="31" spans="1:10" ht="21.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="C31" s="16"/>
       <c r="D31" s="3"/>
@@ -1604,7 +1581,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="28" customHeight="1">
+    <row r="32" spans="1:10" ht="21.75" customHeight="1">
       <c r="A32" s="13">
         <v>44775</v>
       </c>
@@ -1636,7 +1613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28" customHeight="1">
+    <row r="33" spans="1:10" ht="21.75" customHeight="1">
       <c r="A33" s="13">
         <v>44775</v>
       </c>
@@ -1668,7 +1645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28" customHeight="1">
+    <row r="34" spans="1:10" ht="21.75" customHeight="1">
       <c r="A34" s="13">
         <v>44775</v>
       </c>
@@ -1700,7 +1677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="28" customHeight="1">
+    <row r="35" spans="1:10" ht="21.75" customHeight="1">
       <c r="A35" s="13">
         <v>44775</v>
       </c>
@@ -1732,7 +1709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="28" customHeight="1">
+    <row r="36" spans="1:10" ht="21.75" customHeight="1">
       <c r="A36" s="13">
         <v>44775</v>
       </c>
@@ -1764,7 +1741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="28" customHeight="1">
+    <row r="37" spans="1:10" ht="21.75" customHeight="1">
       <c r="A37" s="13">
         <v>44775</v>
       </c>
@@ -1796,7 +1773,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28" customHeight="1">
+    <row r="38" spans="1:10" ht="17.25" customHeight="1"/>
+    <row r="39" spans="1:10" ht="21.75" customHeight="1">
       <c r="A39" s="13">
         <v>44776</v>
       </c>
@@ -1828,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28" customHeight="1">
+    <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="13">
         <v>44776</v>
       </c>
@@ -1860,7 +1838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="28" customHeight="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="17">
         <v>44776</v>
       </c>
@@ -1892,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="28" customHeight="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="17">
         <v>44776</v>
       </c>
@@ -1924,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="28" customHeight="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="17">
         <v>44776</v>
       </c>
@@ -1956,7 +1934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="28" customHeight="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="17">
         <v>44776</v>
       </c>
@@ -1988,7 +1966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28" customHeight="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="17">
         <v>44776</v>
       </c>
@@ -2020,7 +1998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28" customHeight="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="17">
         <v>44777</v>
       </c>
@@ -2052,7 +2030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28" customHeight="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="17">
         <v>44777</v>
       </c>
@@ -2084,7 +2062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28" customHeight="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="17">
         <v>44777</v>
       </c>
@@ -2116,7 +2094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28" customHeight="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="17">
         <v>44777</v>
       </c>
@@ -2148,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28" customHeight="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="17">
         <v>44777</v>
       </c>
@@ -2180,7 +2158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28" customHeight="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="17">
         <v>44777</v>
       </c>
@@ -2212,7 +2190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="28" customHeight="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="17">
         <v>44777</v>
       </c>
@@ -2244,7 +2222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="28" customHeight="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="19">
         <v>44777</v>
       </c>
@@ -2276,7 +2254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="28" customHeight="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="17">
         <v>44777</v>
       </c>
@@ -2308,7 +2286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="28" customHeight="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="17">
         <v>44777</v>
       </c>
@@ -2340,7 +2318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="28" customHeight="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="17">
         <v>44777</v>
       </c>
@@ -2372,10 +2350,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="10" customFormat="1" ht="28" customHeight="1">
+    <row r="59" spans="1:10" s="10" customFormat="1">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:10" ht="28" customHeight="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="17">
         <v>44778</v>
       </c>
@@ -2407,8 +2385,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="28" customHeight="1">
-      <c r="A61" s="17">
+    <row r="61" spans="1:10">
+      <c r="A61" s="21">
         <v>44778</v>
       </c>
       <c r="B61" t="s">
@@ -2433,236 +2411,9 @@
         <v>17</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28" customHeight="1">
-      <c r="A62" s="21">
-        <v>44778</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="23" customFormat="1" ht="28" customHeight="1">
-      <c r="A63" s="22"/>
-    </row>
-    <row r="64" spans="1:10" ht="28" customHeight="1">
-      <c r="A64" s="21">
-        <v>44781</v>
-      </c>
-      <c r="B64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A65" s="21">
-        <v>44781</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="9">
-        <v>1</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A66" s="21">
-        <v>44781</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="9">
-        <v>1</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A67" s="21">
-        <v>44781</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="9">
-        <v>1</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A68" s="21">
-        <v>44781</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="9">
-        <v>1</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="28" customHeight="1">
-      <c r="A69" s="21">
-        <v>44781</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="9">
-        <v>1</v>
-      </c>
-      <c r="J69" s="9" t="s">
         <v>32</v>
       </c>
     </row>
